--- a/datatables/datas/npc.xlsx
+++ b/datatables/datas/npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D124FD-94B1-48BF-B779-8D639E5A7B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99508A5-AEC3-4995-8670-329CBD17DF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,11 +154,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int#ref=active_camp@relationship.TbRelationShip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>阵营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#ref=active_camp@unit.TbRelationShip</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +555,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2"/>
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4"/>
